--- a/coling2016/props/AmazonJulian-COLING-2016-results.xlsx
+++ b/coling2016/props/AmazonJulian-COLING-2016-results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="660" windowWidth="25600" windowHeight="16060" tabRatio="630"/>
+    <workbookView xWindow="6780" yWindow="660" windowWidth="25600" windowHeight="16060" tabRatio="630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DatasetStats" sheetId="14" r:id="rId1"/>
@@ -16831,7 +16831,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -17050,11 +17049,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2124292360"/>
-        <c:axId val="-2140843704"/>
+        <c:axId val="-2114797512"/>
+        <c:axId val="-2124253656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2124292360"/>
+        <c:axId val="-2114797512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17084,7 +17083,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2140843704"/>
+        <c:crossAx val="-2124253656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17092,7 +17091,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2140843704"/>
+        <c:axId val="-2124253656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17113,7 +17112,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124292360"/>
+        <c:crossAx val="-2114797512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17160,7 +17159,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -17372,11 +17370,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2124079240"/>
-        <c:axId val="-2124387800"/>
+        <c:axId val="-2124343528"/>
+        <c:axId val="-2122355848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2124079240"/>
+        <c:axId val="-2124343528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17406,7 +17404,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2124387800"/>
+        <c:crossAx val="-2122355848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17414,7 +17412,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2124387800"/>
+        <c:axId val="-2122355848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2600.0"/>
@@ -17437,7 +17435,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124079240"/>
+        <c:crossAx val="-2124343528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17475,8 +17473,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0636516695255613"/>
-          <c:y val="0.070631970260223"/>
+          <c:x val="0.0636516685414323"/>
+          <c:y val="0.0886500673902248"/>
           <c:w val="0.636069034306156"/>
           <c:h val="0.45104557562275"/>
         </c:manualLayout>
@@ -18488,11 +18486,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2123703496"/>
-        <c:axId val="-2124221832"/>
+        <c:axId val="-2124214600"/>
+        <c:axId val="-2140978216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2123703496"/>
+        <c:axId val="-2124214600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18524,7 +18522,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2124221832"/>
+        <c:crossAx val="-2140978216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18532,7 +18530,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2124221832"/>
+        <c:axId val="-2140978216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -18577,7 +18575,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2123703496"/>
+        <c:crossAx val="-2124214600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10.0"/>
@@ -18589,9 +18587,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.000505811773528309"/>
-          <c:y val="0.0"/>
-          <c:w val="0.746657042869641"/>
+          <c:x val="0.0238095238095238"/>
+          <c:y val="0.024024024024024"/>
+          <c:w val="0.683164979377578"/>
           <c:h val="0.060309049206687"/>
         </c:manualLayout>
       </c:layout>
@@ -19045,7 +19043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+    <sheetView topLeftCell="B9" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D26"/>
     </sheetView>
   </sheetViews>
@@ -20031,7 +20029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:H2"/>
     </sheetView>
   </sheetViews>

--- a/coling2016/props/AmazonJulian-COLING-2016-results.xlsx
+++ b/coling2016/props/AmazonJulian-COLING-2016-results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="660" windowWidth="25600" windowHeight="16060" tabRatio="630" activeTab="1"/>
+    <workbookView xWindow="6780" yWindow="660" windowWidth="25600" windowHeight="16060" tabRatio="630"/>
   </bookViews>
   <sheets>
     <sheet name="DatasetStats" sheetId="14" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5167" uniqueCount="4965">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5169" uniqueCount="4967">
   <si>
     <t>appliances</t>
   </si>
@@ -14922,6 +14922,12 @@
   </si>
   <si>
     <t>CNN w/ pretraining</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -15004,7 +15010,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="878">
+  <cellStyleXfs count="880">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -15883,6 +15889,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -15902,7 +15910,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="878">
+  <cellStyles count="880">
     <cellStyle name="Comma 2" xfId="95"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -16342,6 +16350,7 @@
     <cellStyle name="Followed Hyperlink" xfId="873" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="875" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="877" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="879" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -16780,6 +16789,7 @@
     <cellStyle name="Hyperlink" xfId="872" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="874" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="876" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="878" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -16831,6 +16841,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -17049,11 +17060,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2114797512"/>
-        <c:axId val="-2124253656"/>
+        <c:axId val="-2002537608"/>
+        <c:axId val="-2002513768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2114797512"/>
+        <c:axId val="-2002537608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17083,7 +17094,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2124253656"/>
+        <c:crossAx val="-2002513768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17091,7 +17102,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2124253656"/>
+        <c:axId val="-2002513768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17112,7 +17123,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114797512"/>
+        <c:crossAx val="-2002537608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17159,6 +17170,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -17370,11 +17382,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2124343528"/>
-        <c:axId val="-2122355848"/>
+        <c:axId val="-2002479048"/>
+        <c:axId val="-2002475960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2124343528"/>
+        <c:axId val="-2002479048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17404,7 +17416,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2122355848"/>
+        <c:crossAx val="-2002475960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17412,7 +17424,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2122355848"/>
+        <c:axId val="-2002475960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2600.0"/>
@@ -17435,7 +17447,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124343528"/>
+        <c:crossAx val="-2002479048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18486,11 +18498,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2124214600"/>
-        <c:axId val="-2140978216"/>
+        <c:axId val="-1988849624"/>
+        <c:axId val="-2002177128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2124214600"/>
+        <c:axId val="-1988849624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18522,7 +18534,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2140978216"/>
+        <c:crossAx val="-2002177128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18530,7 +18542,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2140978216"/>
+        <c:axId val="-2002177128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -18575,7 +18587,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2124214600"/>
+        <c:crossAx val="-1988849624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10.0"/>
@@ -18653,13 +18665,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19041,10 +19053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -19373,7 +19385,7 @@
         <v>47044</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>610000</v>
       </c>
@@ -19393,7 +19405,7 @@
         <v>97072</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>620000</v>
       </c>
@@ -19413,7 +19425,7 @@
         <v>67497</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>650000</v>
       </c>
@@ -19433,7 +19445,7 @@
         <v>133409</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>660000</v>
       </c>
@@ -19453,7 +19465,7 @@
         <v>108305</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>670000</v>
       </c>
@@ -19473,7 +19485,7 @@
         <v>107648</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>740000</v>
       </c>
@@ -19493,7 +19505,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>750000</v>
       </c>
@@ -19513,7 +19525,7 @@
         <v>490039</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>770000</v>
       </c>
@@ -19533,7 +19545,7 @@
         <v>266897</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>780000</v>
       </c>
@@ -19553,7 +19565,7 @@
         <v>333850</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>790000</v>
       </c>
@@ -19573,7 +19585,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7">
       <c r="C27" s="1" t="s">
         <v>4954</v>
       </c>
@@ -19582,431 +19594,454 @@
         <v>0.26906993846390143</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="B29">
+    <row r="28" spans="1:7">
+      <c r="C28" s="1" t="s">
+        <v>4965</v>
+      </c>
+      <c r="F28">
+        <f>SUM(F2:F26)</f>
+        <v>7463975</v>
+      </c>
+      <c r="G28">
+        <f>AVERAGE(F2:F26)</f>
+        <v>298559</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="C29" s="1" t="s">
+        <v>4966</v>
+      </c>
+      <c r="D29">
+        <f>AVERAGE(D2:D26)</f>
+        <v>1.6540402752241214</v>
+      </c>
+      <c r="F29">
+        <f>AVERAGE(F2:F26)</f>
+        <v>298559</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="B30">
         <v>90000</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>90000</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <v>0.97576568696656896</v>
       </c>
-      <c r="E29">
+      <c r="E30">
         <v>111</v>
       </c>
-      <c r="F29">
+      <c r="F30">
         <v>6623</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="B30">
+    <row r="31" spans="1:7">
+      <c r="B31">
         <v>120000</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>120000</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D31" s="1">
         <v>1.44511598922697</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <v>424</v>
       </c>
-      <c r="F30">
+      <c r="F31">
         <v>116010</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="B31">
+    <row r="32" spans="1:7">
+      <c r="B32">
         <v>130000</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>130000</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D32" s="1">
         <v>1.62591501199768</v>
       </c>
-      <c r="E31">
+      <c r="E32">
         <v>2412</v>
       </c>
-      <c r="F31">
+      <c r="F32">
         <v>324342</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="B32">
-        <v>140000</v>
-      </c>
-      <c r="C32">
-        <v>140000</v>
-      </c>
-      <c r="D32">
-        <v>1.2324972529839899</v>
-      </c>
-      <c r="E32">
-        <v>209</v>
-      </c>
-      <c r="F32">
-        <v>9740</v>
       </c>
     </row>
     <row r="33" spans="2:6">
       <c r="B33">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="C33">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="D33">
-        <v>0.92271222711039103</v>
+        <v>1.2324972529839899</v>
       </c>
       <c r="E33">
-        <v>266</v>
+        <v>209</v>
       </c>
       <c r="F33">
-        <v>257119</v>
+        <v>9740</v>
       </c>
     </row>
     <row r="34" spans="2:6">
       <c r="B34">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="C34">
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="D34">
-        <v>5.0661794504578896</v>
+        <v>0.92271222711039103</v>
       </c>
       <c r="E34">
-        <v>159</v>
+        <v>266</v>
       </c>
       <c r="F34">
-        <v>1907841</v>
+        <v>257119</v>
       </c>
     </row>
     <row r="35" spans="2:6">
       <c r="B35">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="C35">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="D35">
-        <v>1.5839179392041201</v>
+        <v>5.0661794504578896</v>
       </c>
       <c r="E35">
-        <v>455</v>
+        <v>159</v>
       </c>
       <c r="F35">
-        <v>339899</v>
+        <v>1907841</v>
       </c>
     </row>
     <row r="36" spans="2:6">
       <c r="B36">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="C36">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="D36">
-        <v>2.2454196350391502</v>
+        <v>1.5839179392041201</v>
       </c>
       <c r="E36">
-        <v>50</v>
+        <v>455</v>
       </c>
       <c r="F36">
-        <v>340246</v>
+        <v>339899</v>
       </c>
     </row>
     <row r="37" spans="2:6">
       <c r="B37">
-        <v>290000</v>
+        <v>240000</v>
       </c>
       <c r="C37">
-        <v>290000</v>
+        <v>240000</v>
       </c>
       <c r="D37">
-        <v>2.5430181483919001</v>
+        <v>2.2454196350391502</v>
       </c>
       <c r="E37">
-        <v>2496</v>
+        <v>50</v>
       </c>
       <c r="F37">
-        <v>1159948</v>
+        <v>340246</v>
       </c>
     </row>
     <row r="38" spans="2:6">
       <c r="B38">
-        <v>310000</v>
+        <v>290000</v>
       </c>
       <c r="C38">
-        <v>310000</v>
+        <v>290000</v>
       </c>
       <c r="D38">
-        <v>1.6822267002975</v>
+        <v>2.5430181483919001</v>
       </c>
       <c r="E38">
-        <v>55</v>
+        <v>2496</v>
       </c>
       <c r="F38">
-        <v>2374</v>
+        <v>1159948</v>
       </c>
     </row>
     <row r="39" spans="2:6">
       <c r="B39">
-        <v>370000</v>
+        <v>310000</v>
       </c>
       <c r="C39">
-        <v>370000</v>
+        <v>310000</v>
       </c>
       <c r="D39">
-        <v>1.25504863089823</v>
+        <v>1.6822267002975</v>
       </c>
       <c r="E39">
-        <v>808</v>
+        <v>55</v>
       </c>
       <c r="F39">
-        <v>484555</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="40" spans="2:6">
       <c r="B40">
-        <v>450000</v>
+        <v>370000</v>
       </c>
       <c r="C40">
-        <v>450000</v>
+        <v>370000</v>
       </c>
       <c r="D40">
-        <v>5.6555752453677499</v>
+        <v>1.25504863089823</v>
       </c>
       <c r="E40">
-        <v>510</v>
+        <v>808</v>
       </c>
       <c r="F40">
-        <v>171228</v>
+        <v>484555</v>
       </c>
     </row>
     <row r="41" spans="2:6">
       <c r="B41">
-        <v>470000</v>
+        <v>450000</v>
       </c>
       <c r="C41">
-        <v>470000</v>
+        <v>450000</v>
       </c>
       <c r="D41">
-        <v>0.97950012721051105</v>
+        <v>5.6555752453677499</v>
       </c>
       <c r="E41">
-        <v>838</v>
+        <v>510</v>
       </c>
       <c r="F41">
-        <v>259059</v>
+        <v>171228</v>
       </c>
     </row>
     <row r="42" spans="2:6">
       <c r="B42">
-        <v>480000</v>
+        <v>470000</v>
       </c>
       <c r="C42">
-        <v>480000</v>
+        <v>470000</v>
       </c>
       <c r="D42">
-        <v>1.2497756201091099</v>
+        <v>0.97950012721051105</v>
       </c>
       <c r="E42">
-        <v>1061</v>
+        <v>838</v>
       </c>
       <c r="F42">
-        <v>430020</v>
+        <v>259059</v>
       </c>
     </row>
     <row r="43" spans="2:6">
       <c r="B43">
-        <v>500000</v>
+        <v>480000</v>
       </c>
       <c r="C43">
-        <v>500000</v>
+        <v>480000</v>
       </c>
       <c r="D43">
-        <v>1.21362691417949</v>
+        <v>1.2497756201091099</v>
       </c>
       <c r="E43">
-        <v>1472</v>
+        <v>1061</v>
       </c>
       <c r="F43">
-        <v>47044</v>
+        <v>430020</v>
       </c>
     </row>
     <row r="44" spans="2:6">
       <c r="B44">
-        <v>610000</v>
+        <v>500000</v>
       </c>
       <c r="C44">
-        <v>610000</v>
+        <v>500000</v>
       </c>
       <c r="D44">
-        <v>0.49974137317173001</v>
+        <v>1.21362691417949</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>1472</v>
       </c>
       <c r="F44">
-        <v>97072</v>
+        <v>47044</v>
       </c>
     </row>
     <row r="45" spans="2:6">
       <c r="B45">
-        <v>620000</v>
+        <v>610000</v>
       </c>
       <c r="C45">
-        <v>620000</v>
+        <v>610000</v>
       </c>
       <c r="D45">
-        <v>0.96848391936368305</v>
+        <v>0.49974137317173001</v>
       </c>
       <c r="E45">
-        <v>634</v>
+        <v>3</v>
       </c>
       <c r="F45">
-        <v>67497</v>
+        <v>97072</v>
       </c>
     </row>
     <row r="46" spans="2:6">
       <c r="B46">
-        <v>650000</v>
+        <v>620000</v>
       </c>
       <c r="C46">
-        <v>650000</v>
+        <v>620000</v>
       </c>
       <c r="D46">
-        <v>1.4198035162829701</v>
+        <v>0.96848391936368305</v>
       </c>
       <c r="E46">
-        <v>608</v>
+        <v>634</v>
       </c>
       <c r="F46">
-        <v>133409</v>
+        <v>67497</v>
       </c>
     </row>
     <row r="47" spans="2:6">
       <c r="B47">
-        <v>660000</v>
+        <v>650000</v>
       </c>
       <c r="C47">
-        <v>660000</v>
+        <v>650000</v>
       </c>
       <c r="D47">
-        <v>1.2757017079892301</v>
+        <v>1.4198035162829701</v>
       </c>
       <c r="E47">
-        <v>645</v>
+        <v>608</v>
       </c>
       <c r="F47">
-        <v>108305</v>
+        <v>133409</v>
       </c>
     </row>
     <row r="48" spans="2:6">
       <c r="B48">
-        <v>670000</v>
+        <v>660000</v>
       </c>
       <c r="C48">
-        <v>670000</v>
+        <v>660000</v>
       </c>
       <c r="D48">
-        <v>1.1722951010790199</v>
+        <v>1.2757017079892301</v>
       </c>
       <c r="E48">
-        <v>516</v>
+        <v>645</v>
       </c>
       <c r="F48">
-        <v>107648</v>
+        <v>108305</v>
       </c>
     </row>
     <row r="49" spans="2:6">
       <c r="B49">
-        <v>740000</v>
+        <v>670000</v>
       </c>
       <c r="C49">
-        <v>740000</v>
+        <v>670000</v>
       </c>
       <c r="D49">
-        <v>1.27103115850701</v>
+        <v>1.1722951010790199</v>
       </c>
       <c r="E49">
-        <v>91</v>
+        <v>516</v>
       </c>
       <c r="F49">
-        <v>1019</v>
+        <v>107648</v>
       </c>
     </row>
     <row r="50" spans="2:6">
       <c r="B50">
-        <v>750000</v>
+        <v>740000</v>
       </c>
       <c r="C50">
-        <v>750000</v>
+        <v>740000</v>
       </c>
       <c r="D50">
-        <v>1.2876179517933499</v>
+        <v>1.27103115850701</v>
       </c>
       <c r="E50">
-        <v>2562</v>
+        <v>91</v>
       </c>
       <c r="F50">
-        <v>490039</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="51" spans="2:6">
       <c r="B51">
-        <v>770000</v>
+        <v>750000</v>
       </c>
       <c r="C51">
-        <v>770000</v>
+        <v>750000</v>
       </c>
       <c r="D51">
-        <v>1.02826048883334</v>
+        <v>1.2876179517933499</v>
       </c>
       <c r="E51">
-        <v>1054</v>
+        <v>2562</v>
       </c>
       <c r="F51">
-        <v>266897</v>
+        <v>490039</v>
       </c>
     </row>
     <row r="52" spans="2:6">
       <c r="B52">
-        <v>780000</v>
+        <v>770000</v>
       </c>
       <c r="C52">
-        <v>780000</v>
+        <v>770000</v>
       </c>
       <c r="D52">
-        <v>1.69228360431312</v>
+        <v>1.02826048883334</v>
       </c>
       <c r="E52">
-        <v>558</v>
+        <v>1054</v>
       </c>
       <c r="F52">
-        <v>333850</v>
+        <v>266897</v>
       </c>
     </row>
     <row r="53" spans="2:6">
       <c r="B53">
+        <v>780000</v>
+      </c>
+      <c r="C53">
+        <v>780000</v>
+      </c>
+      <c r="D53">
+        <v>1.69228360431312</v>
+      </c>
+      <c r="E53">
+        <v>558</v>
+      </c>
+      <c r="F53">
+        <v>333850</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54">
         <v>790000</v>
       </c>
-      <c r="C53">
+      <c r="C54">
         <v>790000</v>
       </c>
-      <c r="D53">
+      <c r="D54">
         <v>1.05949347982833</v>
       </c>
-      <c r="E53">
+      <c r="E54">
         <v>191</v>
       </c>
-      <c r="F53">
+      <c r="F54">
         <v>2191</v>
       </c>
     </row>
@@ -20029,7 +20064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:H2"/>
     </sheetView>
   </sheetViews>

--- a/coling2016/props/AmazonJulian-COLING-2016-results.xlsx
+++ b/coling2016/props/AmazonJulian-COLING-2016-results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5169" uniqueCount="4967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5170" uniqueCount="4967">
   <si>
     <t>appliances</t>
   </si>
@@ -15010,7 +15010,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="880">
+  <cellStyleXfs count="886">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -15891,6 +15891,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -15910,7 +15916,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="880">
+  <cellStyles count="886">
     <cellStyle name="Comma 2" xfId="95"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -16351,6 +16357,9 @@
     <cellStyle name="Followed Hyperlink" xfId="875" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="877" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="879" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="881" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="883" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="885" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -16790,6 +16799,9 @@
     <cellStyle name="Hyperlink" xfId="874" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="876" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="878" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="880" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="882" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="884" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -17060,11 +17072,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2002537608"/>
-        <c:axId val="-2002513768"/>
+        <c:axId val="-2145633944"/>
+        <c:axId val="-1988266248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2002537608"/>
+        <c:axId val="-2145633944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17094,7 +17106,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2002513768"/>
+        <c:crossAx val="-1988266248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17102,7 +17114,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2002513768"/>
+        <c:axId val="-1988266248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17123,7 +17135,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2002537608"/>
+        <c:crossAx val="-2145633944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17382,11 +17394,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2002479048"/>
-        <c:axId val="-2002475960"/>
+        <c:axId val="-1988853624"/>
+        <c:axId val="-2131331496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2002479048"/>
+        <c:axId val="-1988853624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17416,7 +17428,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2002475960"/>
+        <c:crossAx val="-2131331496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17424,7 +17436,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2002475960"/>
+        <c:axId val="-2131331496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2600.0"/>
@@ -17447,7 +17459,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2002479048"/>
+        <c:crossAx val="-1988853624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18498,11 +18510,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1988849624"/>
-        <c:axId val="-2002177128"/>
+        <c:axId val="-1988322456"/>
+        <c:axId val="-2002174744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1988849624"/>
+        <c:axId val="-1988322456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18534,7 +18546,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2002177128"/>
+        <c:crossAx val="-2002174744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18542,7 +18554,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2002177128"/>
+        <c:axId val="-2002174744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -18587,7 +18599,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1988849624"/>
+        <c:crossAx val="-1988322456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10.0"/>
@@ -19056,7 +19068,7 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -19597,6 +19609,10 @@
     <row r="28" spans="1:7">
       <c r="C28" s="1" t="s">
         <v>4965</v>
+      </c>
+      <c r="E28">
+        <f>SUM(E2:E26)</f>
+        <v>18188</v>
       </c>
       <c r="F28">
         <f>SUM(F2:F26)</f>
@@ -20065,7 +20081,7 @@
   <dimension ref="A1:O119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:H2"/>
+      <selection activeCell="C2" sqref="C2:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -20688,6 +20704,9 @@
       </c>
     </row>
     <row r="28" spans="1:8">
+      <c r="C28" t="s">
+        <v>4966</v>
+      </c>
       <c r="D28" s="3">
         <f>AVERAGE(D3:D27)</f>
         <v>49.013376000000008</v>

--- a/coling2016/props/AmazonJulian-COLING-2016-results.xlsx
+++ b/coling2016/props/AmazonJulian-COLING-2016-results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="660" windowWidth="25600" windowHeight="16060" tabRatio="630"/>
+    <workbookView xWindow="6780" yWindow="660" windowWidth="25600" windowHeight="16060" tabRatio="630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DatasetStats" sheetId="14" r:id="rId1"/>
@@ -17072,11 +17072,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2145633944"/>
-        <c:axId val="-1988266248"/>
+        <c:axId val="-2003069864"/>
+        <c:axId val="-2131657320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2145633944"/>
+        <c:axId val="-2003069864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17106,7 +17106,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1988266248"/>
+        <c:crossAx val="-2131657320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17114,7 +17114,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1988266248"/>
+        <c:axId val="-2131657320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17135,7 +17135,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145633944"/>
+        <c:crossAx val="-2003069864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17394,11 +17394,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1988853624"/>
-        <c:axId val="-2131331496"/>
+        <c:axId val="-2002428312"/>
+        <c:axId val="-2003792088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1988853624"/>
+        <c:axId val="-2002428312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17428,7 +17428,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2131331496"/>
+        <c:crossAx val="-2003792088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17436,7 +17436,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2131331496"/>
+        <c:axId val="-2003792088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2600.0"/>
@@ -17459,7 +17459,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1988853624"/>
+        <c:crossAx val="-2002428312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17497,9 +17497,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0636516685414323"/>
-          <c:y val="0.0886500673902248"/>
-          <c:w val="0.636069034306156"/>
+          <c:x val="0.0842865891763529"/>
+          <c:y val="0.0796410583812159"/>
+          <c:w val="0.698300462442195"/>
           <c:h val="0.45104557562275"/>
         </c:manualLayout>
       </c:layout>
@@ -18510,11 +18510,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1988322456"/>
-        <c:axId val="-2002174744"/>
+        <c:axId val="-2003712328"/>
+        <c:axId val="-2130800280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1988322456"/>
+        <c:axId val="-2003712328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18526,9 +18526,8 @@
         <c:spPr>
           <a:effectLst>
             <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
                 <a:alpha val="43000"/>
               </a:schemeClr>
             </a:outerShdw>
@@ -18541,12 +18540,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" baseline="0"/>
+              <a:defRPr sz="1400" baseline="0"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2002174744"/>
+        <c:crossAx val="-2130800280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18554,7 +18553,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2002174744"/>
+        <c:axId val="-2130800280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -18579,27 +18578,19 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:effectLst>
-            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-                <a:alpha val="43000"/>
-              </a:schemeClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" baseline="0"/>
+              <a:defRPr sz="1400" baseline="0"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1988322456"/>
+        <c:crossAx val="-2003712328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10.0"/>
@@ -18611,10 +18602,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0238095238095238"/>
-          <c:y val="0.024024024024024"/>
-          <c:w val="0.683164979377578"/>
-          <c:h val="0.060309049206687"/>
+          <c:x val="0.0492063492063492"/>
+          <c:y val="0.021021021021021"/>
+          <c:w val="0.73554593175853"/>
+          <c:h val="0.06331205220969"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -18623,7 +18614,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1000" kern="1200" baseline="0"/>
+            <a:defRPr sz="1200" kern="1200" baseline="0"/>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -19067,7 +19058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -20080,8 +20071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
